--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12010_2300_ZERO-C.CUS.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12010_2300_ZERO-C.CUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2189AF9-E5C5-E54A-B702-BF60858DE6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC07E5-703E-DB41-AF17-3A9CABB3FFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
   <si>
     <t>key</t>
   </si>
@@ -447,22 +447,6 @@
   </si>
   <si>
     <t>baaf0cae-58af-40b9-9672-26f8cca14727</t>
-  </si>
-  <si>
-    <t>入口模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口菜单ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>entry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>entryId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -615,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,6 +643,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -989,7 +974,7 @@
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="92.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="88.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -1022,8 +1007,8 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
@@ -1048,15 +1033,9 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1083,15 +1062,9 @@
         <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1117,12 +1090,8 @@
       <c r="G5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1582,7 +1551,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12010_2300_ZERO-C.CUS.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12010_2300_ZERO-C.CUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-erp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC07E5-703E-DB41-AF17-3A9CABB3FFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001084DF-56D6-204C-AF44-02D1F72D0B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>key</t>
   </si>
@@ -44,303 +44,283 @@
   </si>
   <si>
     <t>B_BAG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块包相关信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包缩写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块全名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>父模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块风格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nameAbbr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nameFull</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>parentId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uiSort</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uiIcon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uiStyle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块块相关信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bagId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>块主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包关联ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>块名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>块编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>界面核心配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>块排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>块图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>块风格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uiConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lic模型标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lic菜单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>License发证机构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>licIdentifier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>licMenu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>signIssuer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>signName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B_BLOCK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>signStart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>许可开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>许可结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>signEnd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>许可时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>signAt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>许可证名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否授权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>authorized</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>永久许可 - Permanent License</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Zero Framework Development</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z-COMMERCE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合同管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三方账号管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入场申请流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>离场申请流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>考核流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工时补签流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZERO-E.CUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOCK_CUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZERO-E.CUS_VENDOR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZERO-E.CUS_CONTRACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZERO-E.CUS_USER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZERO-E.CUS_W_CHECKIN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZERO-E.CUS_W_CHECKOUT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZERO-E.CUS_W_ASSESSMENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZERO-E.CUS_W_HOUR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BLOCK_CUS_VENDOR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BLOCK_CUS_CONTRACT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BLOCK_CUS_USER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_VENDOR/ui-config.json</t>
@@ -371,54 +351,51 @@
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_CHECKIN/ui-config.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_CHECKIN/lic-identifier.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_CHECKIN/lic-menu.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_CHECKOUT/ui-config.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_CHECKOUT/lic-identifier.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_CHECKOUT/lic-menu.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_ASSESSMENT/ui-config.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_ASSESSMENT/lic-identifier.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_ASSESSMENT/lic-menu.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_HOUR/ui-config.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_HOUR/lic-identifier.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON:modulat/zero-e.customer/CUS_W_HOUR/lic-menu.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd87038a-1ff0-4b2f-a8c3-6cd8ffaf4332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e14c15cf-a00a-4f1a-b8f3-f54061c4ded6</t>
@@ -443,7 +420,7 @@
   </si>
   <si>
     <t>BLOCK_WORKFLOW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>baaf0cae-58af-40b9-9672-26f8cca14727</t>
@@ -454,25 +431,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -480,7 +451,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -488,7 +459,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,49 +572,49 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,13 +929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.5" style="2" bestFit="1" customWidth="1"/>
@@ -984,33 +955,33 @@
     <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1068,196 +1039,213 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="11" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1005</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2300</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="14" t="str">
-        <f>A$5</f>
-        <v>dd87038a-1ff0-4b2f-a8c3-6cd8ffaf4332</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="5">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>50</v>
@@ -1272,38 +1260,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="14" t="str">
-        <f t="shared" ref="B16:B21" si="0">A$5</f>
-        <v>dd87038a-1ff0-4b2f-a8c3-6cd8ffaf4332</v>
+        <v>95</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="5">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>50</v>
@@ -1318,38 +1305,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>dd87038a-1ff0-4b2f-a8c3-6cd8ffaf4332</v>
-      </c>
       <c r="C17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5">
-        <v>1015</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>76</v>
+        <v>1020</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>50</v>
@@ -1364,38 +1350,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>dd87038a-1ff0-4b2f-a8c3-6cd8ffaf4332</v>
+        <v>97</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="5">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>50</v>
@@ -1410,38 +1395,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>dd87038a-1ff0-4b2f-a8c3-6cd8ffaf4332</v>
+        <v>98</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="5">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>50</v>
@@ -1456,38 +1440,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>dd87038a-1ff0-4b2f-a8c3-6cd8ffaf4332</v>
+        <v>99</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" s="5">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>50</v>
@@ -1502,58 +1485,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>dd87038a-1ff0-4b2f-a8c3-6cd8ffaf4332</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1035</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>